--- a/document/【実習】各種設計書/基本設計/基本設計書.xlsx
+++ b/document/【実習】各種設計書/基本設計/基本設計書.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spux8\Documents\school\13_ProgrammingPractice\document\【実習】各種設計書\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC2E509-0416-43F7-A5C8-F0B1021A314B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E51A73-D5B2-4991-9666-1EA21EC59381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="774" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="26" r:id="rId1"/>
     <sheet name="IO関連図" sheetId="13" r:id="rId2"/>
-    <sheet name="画面レイアウト" sheetId="15" r:id="rId3"/>
+    <sheet name="画面レイアウト " sheetId="27" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">IO関連図!$A$1:$AG$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">画面レイアウト!$A$1:$AG$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'画面レイアウト '!$A$1:$AI$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$43</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">IO関連図!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">画面レイアウト!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'画面レイアウト '!$1:$3</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -127,18 +127,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>▽</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>～</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>～</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>△</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -151,171 +139,11 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>引合先カナ名</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキア</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>引合状況</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキア</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ＢＢＢＢＢＢＢＢＢＢ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ＯＯＯＯＯＯＯＯＯＯ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>BBBBBB</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>受注確度</t>
-    <rPh sb="0" eb="2">
-      <t>ジュチュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カクド</t>
-    </rPh>
+    <t>ＯＯＯＯＯ</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>ＯＯＯ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ＯＯＯ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>□  ｸﾛｰｽﾞ分も含む</t>
-    <rPh sb="7" eb="9">
-      <t>ブンモ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>フクム</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ＯＯＯＯＯ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>引合状況</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキアイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ＯＯＯＯＯ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ＯＯＯＯＯＯＯＯ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ＯＯＯ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>受注見込金額</t>
-    <rPh sb="0" eb="2">
-      <t>ジュチュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ミコ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キンガク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>受注予定月</t>
-    <rPh sb="0" eb="2">
-      <t>ジュチュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ツキ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>最終営業報告</t>
-    <rPh sb="0" eb="2">
-      <t>サイシュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>エイギョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ホウコク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ＯＯＯＯＯＯＯＯＯＯＯＯＯＯＯＯＯＯ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>最終報告日</t>
-    <rPh sb="0" eb="2">
-      <t>サイシュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ホウコク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>引合番号</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキアイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>引合先名</t>
-    <rPh sb="0" eb="2">
-      <t>ヒキアイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -324,14 +152,6 @@
   </si>
   <si>
     <t>ZZZZZ6</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>ZZZ,ZZZ,ZZ6</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>YYYY/MM/DD</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -378,20 +198,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>基本設計書</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>セッケイショ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>岩岬</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
@@ -419,24 +225,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>生徒管理システム</t>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>プロスペクト一覧</t>
-    <rPh sb="6" eb="8">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>プロスペクト一覧</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>基本設計書</t>
   </si>
   <si>
@@ -444,6 +232,108 @@
     <rPh sb="0" eb="2">
       <t>クラタニ</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ユーザー管理システム</t>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>名前（姓）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>名前（名）</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カナ（姓）</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カナ（名）</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アカウント権限</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ユーザー一覧</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ユーザー一覧</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ＯＯＯＯＯＯ</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -744,7 +634,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -796,15 +686,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -823,6 +704,19 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="4" applyFill="1" applyBorder="1"/>
@@ -862,11 +756,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -884,39 +802,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1438,7 +1323,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>プロスペクト登録</a:t>
+            <a:t>ユーザー登録</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1509,43 +1394,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>社員マスタ</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>引合状況マスタ</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1300"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>受注確度マスタ</a:t>
+            <a:t>ユーザー情報マスタ</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1784,7 +1633,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>プロスペクト登録</a:t>
+            <a:t>ユーザーログイン</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1802,8 +1651,15 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>プロスペクト詳細</a:t>
+            <a:t>ユーザー検索</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -1820,7 +1676,32 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>引合先マスタ</a:t>
+            <a:t>ユーザー更新</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ユーザー削除</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1997,103 +1878,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6154" name="AutoShape 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{146FEF65-1060-4169-998D-BB8249CBE3AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4292600" y="4184650"/>
-          <a:ext cx="850900" cy="635000"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>月別受注</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>見込金額</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>81280</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -2112,8 +1904,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3308350" y="4267200"/>
-          <a:ext cx="819150" cy="495300"/>
+          <a:off x="3746500" y="4000500"/>
+          <a:ext cx="1046480" cy="499110"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDocument">
           <a:avLst/>
@@ -2148,25 +1940,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>プロスペクト</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1200"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>一覧表</a:t>
+            <a:t>アカウント一覧</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2180,23 +1954,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>248445</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4097" name="Text Box 1">
+        <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE0CED37-9213-41F8-AE5C-BD92D9E8CD36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F7F4B71-704C-425C-A169-888278287D4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2206,8 +1980,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7385050" y="1657350"/>
-          <a:ext cx="596900" cy="228600"/>
+          <a:off x="8915400" y="990600"/>
+          <a:ext cx="355125" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2239,7 +2013,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>印刷</a:t>
+            <a:t>削除</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2248,23 +2022,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>127328</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4098" name="Text Box 2">
+        <xdr:cNvPr id="3" name="Text Box 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38F8AEAA-EC63-41CB-B18D-F4972DFCE7A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05B9816B-B80A-49D6-A2B1-3F39300A1C1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2274,8 +2048,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8566150" y="1644650"/>
-          <a:ext cx="596900" cy="234950"/>
+          <a:off x="8488680" y="998220"/>
+          <a:ext cx="378788" cy="198120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2307,75 +2081,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>閉じる</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4099" name="Text Box 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E520B76-5763-4DC2-A543-A52E56005BD9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6502400" y="1644650"/>
-          <a:ext cx="596900" cy="234950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="C0C0C0" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="22"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="22860" rIns="36576" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>検索</a:t>
+            <a:t>更新</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2684,7 +2390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
@@ -3155,26 +2861,26 @@
     </row>
     <row r="8" spans="1:256" ht="13.05" customHeight="1">
       <c r="A8" s="16"/>
-      <c r="B8" s="57" t="s">
-        <v>42</v>
+      <c r="B8" s="52" t="s">
+        <v>18</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="58" t="s">
-        <v>51</v>
+      <c r="F8" s="64" t="s">
+        <v>25</v>
       </c>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="60"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="66"/>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
@@ -3193,26 +2899,26 @@
     </row>
     <row r="9" spans="1:256" ht="13.05" customHeight="1">
       <c r="A9" s="16"/>
-      <c r="B9" s="61" t="s">
-        <v>43</v>
+      <c r="B9" s="67" t="s">
+        <v>19</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="67" t="s">
-        <v>52</v>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="73" t="s">
+        <v>26</v>
       </c>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="69"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="75"/>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
@@ -3231,22 +2937,22 @@
     </row>
     <row r="10" spans="1:256" ht="13.05" customHeight="1">
       <c r="A10" s="16"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="72"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="78"/>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
@@ -3457,26 +3163,26 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="73" t="s">
-        <v>56</v>
+      <c r="H17" s="79" t="s">
+        <v>27</v>
       </c>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="73"/>
-      <c r="T17" s="73"/>
-      <c r="U17" s="73"/>
-      <c r="V17" s="73"/>
-      <c r="W17" s="73"/>
-      <c r="X17" s="73"/>
-      <c r="Y17" s="73"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="79"/>
       <c r="AA17" s="13"/>
       <c r="AB17" s="13"/>
       <c r="AC17" s="13"/>
@@ -3492,24 +3198,24 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="73"/>
-      <c r="S18" s="73"/>
-      <c r="T18" s="73"/>
-      <c r="U18" s="73"/>
-      <c r="V18" s="73"/>
-      <c r="W18" s="73"/>
-      <c r="X18" s="73"/>
-      <c r="Y18" s="73"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="79"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="79"/>
+      <c r="Y18" s="79"/>
       <c r="AA18" s="13"/>
       <c r="AB18" s="13"/>
       <c r="AC18" s="13"/>
@@ -3525,24 +3231,24 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="73"/>
-      <c r="S19" s="73"/>
-      <c r="T19" s="73"/>
-      <c r="U19" s="73"/>
-      <c r="V19" s="73"/>
-      <c r="W19" s="73"/>
-      <c r="X19" s="73"/>
-      <c r="Y19" s="73"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="79"/>
+      <c r="U19" s="79"/>
+      <c r="V19" s="79"/>
+      <c r="W19" s="79"/>
+      <c r="X19" s="79"/>
+      <c r="Y19" s="79"/>
       <c r="Z19" s="13"/>
       <c r="AA19" s="13"/>
       <c r="AB19" s="13"/>
@@ -3721,7 +3427,7 @@
     <row r="25" spans="1:32" ht="13.05" customHeight="1">
       <c r="A25" s="16"/>
       <c r="B25" s="22" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
@@ -3754,7 +3460,7 @@
       <c r="AA25" s="23"/>
       <c r="AB25" s="24"/>
       <c r="AC25" s="26" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="AD25" s="24" t="s">
         <v>8</v>
@@ -3765,19 +3471,19 @@
     <row r="26" spans="1:32" ht="13.05" customHeight="1">
       <c r="A26" s="16"/>
       <c r="B26" s="22" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
-      <c r="F26" s="74">
+      <c r="F26" s="80">
         <v>45641</v>
       </c>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="76"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="82"/>
       <c r="J26" s="22" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="K26" s="23"/>
       <c r="L26" s="23"/>
@@ -3798,7 +3504,7 @@
       <c r="AA26" s="23"/>
       <c r="AB26" s="24"/>
       <c r="AC26" s="26" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="AD26" s="24"/>
       <c r="AE26" s="13"/>
@@ -4405,7 +4111,7 @@
   <dimension ref="A1:FU42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:AG1"/>
+      <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -4418,127 +4124,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
-      <c r="X1" s="77"/>
-      <c r="Y1" s="77"/>
-      <c r="Z1" s="77"/>
-      <c r="AA1" s="77"/>
-      <c r="AB1" s="77"/>
-      <c r="AC1" s="77"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="77"/>
-      <c r="AF1" s="77"/>
-      <c r="AG1" s="77"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="83"/>
+      <c r="AC1" s="83"/>
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="83"/>
     </row>
     <row r="2" spans="1:177" ht="13.05" customHeight="1">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="78" t="s">
-        <v>50</v>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="84" t="s">
+        <v>24</v>
       </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="78" t="s">
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="85"/>
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="86"/>
+      <c r="AD2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="78" t="s">
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="80"/>
+      <c r="AG2" s="86"/>
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="78" t="s">
-        <v>52</v>
+      <c r="A3" s="84" t="s">
+        <v>29</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="78" t="s">
-        <v>54</v>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="84" t="s">
+        <v>41</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="79"/>
-      <c r="AA3" s="79"/>
-      <c r="AB3" s="79"/>
-      <c r="AC3" s="80"/>
-      <c r="AD3" s="78" t="s">
-        <v>15</v>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="85"/>
+      <c r="Z3" s="85"/>
+      <c r="AA3" s="85"/>
+      <c r="AB3" s="85"/>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="84" t="s">
+        <v>12</v>
       </c>
-      <c r="AE3" s="80"/>
-      <c r="AF3" s="78" t="s">
-        <v>49</v>
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="84" t="s">
+        <v>28</v>
       </c>
-      <c r="AG3" s="80"/>
+      <c r="AG3" s="86"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
@@ -6075,147 +5781,151 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:FU42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC54B72-10B1-43D3-896A-CA8D94C9BF65}">
+  <dimension ref="A1:FW36"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="4.109375" style="36" customWidth="1"/>
     <col min="5" max="6" width="4.109375" style="35" customWidth="1"/>
-    <col min="7" max="33" width="4.109375" style="36" customWidth="1"/>
-    <col min="34" max="37" width="4" style="36" customWidth="1"/>
-    <col min="38" max="16384" width="9" style="36"/>
+    <col min="7" max="35" width="4.109375" style="36" customWidth="1"/>
+    <col min="36" max="39" width="4" style="36" customWidth="1"/>
+    <col min="40" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="86" t="s">
+    <row r="1" spans="1:179" ht="12.75" customHeight="1">
+      <c r="A1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-      <c r="Y1" s="86"/>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86"/>
-    </row>
-    <row r="2" spans="1:177" ht="13.05" customHeight="1">
-      <c r="A2" s="87" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
+      <c r="Y1" s="100"/>
+      <c r="Z1" s="100"/>
+      <c r="AA1" s="100"/>
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="100"/>
+      <c r="AD1" s="100"/>
+      <c r="AE1" s="100"/>
+      <c r="AF1" s="100"/>
+      <c r="AG1" s="100"/>
+      <c r="AH1" s="100"/>
+      <c r="AI1" s="100"/>
+    </row>
+    <row r="2" spans="1:179" ht="13.05" customHeight="1">
+      <c r="A2" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="87" t="s">
-        <v>50</v>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="101" t="s">
+        <v>24</v>
       </c>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="88"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="87" t="s">
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
+      <c r="X2" s="102"/>
+      <c r="Y2" s="102"/>
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="103"/>
+      <c r="AD2" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="89"/>
-      <c r="AF2" s="87" t="s">
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="89"/>
-    </row>
-    <row r="3" spans="1:177" s="15" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="87" t="s">
-        <v>53</v>
+      <c r="AI2" s="103"/>
+    </row>
+    <row r="3" spans="1:179" s="15" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A3" s="101" t="s">
+        <v>29</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="87" t="s">
-        <v>55</v>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="101" t="s">
+        <v>42</v>
       </c>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="88"/>
-      <c r="U3" s="88"/>
-      <c r="V3" s="88"/>
-      <c r="W3" s="88"/>
-      <c r="X3" s="88"/>
-      <c r="Y3" s="88"/>
-      <c r="Z3" s="88"/>
-      <c r="AA3" s="88"/>
-      <c r="AB3" s="88"/>
-      <c r="AC3" s="89"/>
-      <c r="AD3" s="87" t="s">
-        <v>15</v>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="102"/>
+      <c r="Y3" s="102"/>
+      <c r="Z3" s="102"/>
+      <c r="AA3" s="102"/>
+      <c r="AB3" s="102"/>
+      <c r="AC3" s="103"/>
+      <c r="AD3" s="101" t="s">
+        <v>12</v>
       </c>
-      <c r="AE3" s="89"/>
-      <c r="AF3" s="87" t="s">
-        <v>49</v>
+      <c r="AE3" s="102"/>
+      <c r="AF3" s="102"/>
+      <c r="AG3" s="103"/>
+      <c r="AH3" s="101" t="s">
+        <v>28</v>
       </c>
-      <c r="AG3" s="89"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14"/>
+      <c r="AI3" s="103"/>
+      <c r="AJ3" s="13"/>
       <c r="AK3" s="14"/>
       <c r="AL3" s="14"/>
       <c r="AM3" s="14"/>
@@ -6357,8 +6067,10 @@
       <c r="FS3" s="14"/>
       <c r="FT3" s="14"/>
       <c r="FU3" s="14"/>
-    </row>
-    <row r="4" spans="1:177" ht="12.75" customHeight="1">
+      <c r="FV3" s="14"/>
+      <c r="FW3" s="14"/>
+    </row>
+    <row r="4" spans="1:179" ht="12.75" customHeight="1">
       <c r="A4" s="32"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -6391,40 +6103,32 @@
       <c r="AD4" s="33"/>
       <c r="AE4" s="33"/>
       <c r="AF4" s="33"/>
-      <c r="AG4" s="34"/>
-    </row>
-    <row r="5" spans="1:177" ht="12.75" customHeight="1">
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="34"/>
+    </row>
+    <row r="5" spans="1:179" ht="12.75" customHeight="1">
       <c r="A5" s="16"/>
       <c r="B5" s="38"/>
-      <c r="C5" s="38" t="s">
-        <v>16</v>
-      </c>
+      <c r="C5" s="38"/>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
       <c r="L5" s="38"/>
       <c r="M5" s="38"/>
       <c r="N5" s="38"/>
-      <c r="O5" s="38" t="s">
-        <v>2</v>
-      </c>
+      <c r="O5" s="38"/>
       <c r="P5" s="38"/>
       <c r="Q5" s="38"/>
       <c r="R5" s="38"/>
-      <c r="S5" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="T5" s="41"/>
-      <c r="U5" s="38" t="s">
-        <v>19</v>
-      </c>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
       <c r="V5" s="38"/>
       <c r="W5" s="38"/>
       <c r="X5" s="38"/>
@@ -6436,1388 +6140,1208 @@
       <c r="AD5" s="38"/>
       <c r="AE5" s="38"/>
       <c r="AF5" s="38"/>
-      <c r="AG5" s="18"/>
-    </row>
-    <row r="6" spans="1:177" ht="12.75" customHeight="1">
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="18"/>
+    </row>
+    <row r="6" spans="1:179" ht="12.75" customHeight="1">
       <c r="A6" s="16"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="18"/>
-    </row>
-    <row r="7" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38" t="s">
+      <c r="B6" s="92" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="98"/>
+      <c r="D6" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="99"/>
+      <c r="J6" s="98"/>
+      <c r="K6" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="99"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="38"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" s="58"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" s="58"/>
+      <c r="V6" s="92" t="s">
+        <v>37</v>
+      </c>
+      <c r="W6" s="93"/>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="55"/>
+      <c r="AB6" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC6" s="54"/>
+      <c r="AD6" s="55"/>
+      <c r="AE6" s="54"/>
+      <c r="AF6" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG6" s="55"/>
+      <c r="AH6" s="40"/>
+      <c r="AI6" s="18"/>
+    </row>
+    <row r="7" spans="1:179" ht="12.75" customHeight="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="91"/>
+      <c r="D7" s="41" t="s">
+        <v>15</v>
+      </c>
       <c r="E7" s="38"/>
       <c r="F7" s="38"/>
-      <c r="G7" s="39" t="s">
-        <v>40</v>
+      <c r="G7" s="42"/>
+      <c r="H7" s="97" t="s">
+        <v>13</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42" t="s">
+      <c r="I7" s="95"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="95"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="38"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" s="61"/>
+      <c r="T7" s="60">
+        <v>0</v>
+      </c>
+      <c r="U7" s="61"/>
+      <c r="V7" s="95">
+        <v>1</v>
+      </c>
+      <c r="W7" s="95"/>
+      <c r="X7" s="96"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="38">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC7" s="88"/>
+      <c r="AD7" s="89"/>
+      <c r="AE7" s="53"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="62"/>
+      <c r="AH7" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI7" s="18"/>
+    </row>
+    <row r="8" spans="1:179" ht="12.75" customHeight="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="41"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="42"/>
+      <c r="AH8" s="44"/>
+      <c r="AI8" s="18"/>
+    </row>
+    <row r="9" spans="1:179" ht="12.75" customHeight="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="42"/>
+      <c r="AH9" s="44"/>
+      <c r="AI9" s="18"/>
+    </row>
+    <row r="10" spans="1:179" ht="12.75" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="38"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="38"/>
+      <c r="AF10" s="38"/>
+      <c r="AG10" s="42"/>
+      <c r="AH10" s="44"/>
+      <c r="AI10" s="18"/>
+    </row>
+    <row r="11" spans="1:179" ht="12.75" customHeight="1">
+      <c r="A11" s="16"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="42"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="38"/>
+      <c r="AG11" s="42"/>
+      <c r="AH11" s="44"/>
+      <c r="AI11" s="18"/>
+    </row>
+    <row r="12" spans="1:179" ht="12.75" customHeight="1">
+      <c r="A12" s="16"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="38"/>
+      <c r="X12" s="38"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="41"/>
+      <c r="AC12" s="38"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="38"/>
+      <c r="AF12" s="38"/>
+      <c r="AG12" s="42"/>
+      <c r="AH12" s="44"/>
+      <c r="AI12" s="18"/>
+    </row>
+    <row r="13" spans="1:179" ht="12.75" customHeight="1">
+      <c r="A13" s="16"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="38"/>
+      <c r="AF13" s="38"/>
+      <c r="AG13" s="42"/>
+      <c r="AH13" s="44"/>
+      <c r="AI13" s="18"/>
+    </row>
+    <row r="14" spans="1:179" ht="12.75" customHeight="1">
+      <c r="A14" s="16"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="38"/>
+      <c r="X14" s="38"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="41"/>
+      <c r="AC14" s="38"/>
+      <c r="AD14" s="42"/>
+      <c r="AE14" s="38"/>
+      <c r="AF14" s="38"/>
+      <c r="AG14" s="42"/>
+      <c r="AH14" s="44"/>
+      <c r="AI14" s="18"/>
+    </row>
+    <row r="15" spans="1:179" ht="12.75" customHeight="1">
+      <c r="A15" s="16"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="38"/>
+      <c r="X15" s="38"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="41"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="42"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="42"/>
+      <c r="AH15" s="44"/>
+      <c r="AI15" s="18"/>
+    </row>
+    <row r="16" spans="1:179" ht="12.75" customHeight="1">
+      <c r="A16" s="16"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="41"/>
+      <c r="AC16" s="38"/>
+      <c r="AD16" s="42"/>
+      <c r="AE16" s="38"/>
+      <c r="AF16" s="38"/>
+      <c r="AG16" s="42"/>
+      <c r="AH16" s="44"/>
+      <c r="AI16" s="18"/>
+    </row>
+    <row r="17" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A17" s="16"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="39"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="41"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="42"/>
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="38"/>
+      <c r="AG17" s="42"/>
+      <c r="AH17" s="44"/>
+      <c r="AI17" s="18"/>
+    </row>
+    <row r="18" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A18" s="16"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="39"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="42"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="42"/>
+      <c r="AH18" s="44"/>
+      <c r="AI18" s="18"/>
+    </row>
+    <row r="19" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A19" s="16"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="43"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="41"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="38"/>
+      <c r="AF19" s="38"/>
+      <c r="AG19" s="42"/>
+      <c r="AH19" s="44"/>
+      <c r="AI19" s="18"/>
+    </row>
+    <row r="20" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A20" s="16"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="41"/>
+      <c r="AC20" s="38"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="38"/>
+      <c r="AF20" s="38"/>
+      <c r="AG20" s="42"/>
+      <c r="AH20" s="44"/>
+      <c r="AI20" s="18"/>
+    </row>
+    <row r="21" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A21" s="16"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="39"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="42"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="42"/>
+      <c r="AE21" s="38"/>
+      <c r="AF21" s="38"/>
+      <c r="AG21" s="42"/>
+      <c r="AH21" s="44"/>
+      <c r="AI21" s="18"/>
+    </row>
+    <row r="22" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A22" s="16"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="43"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="42"/>
+      <c r="AB22" s="41"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="42"/>
+      <c r="AE22" s="38"/>
+      <c r="AF22" s="38"/>
+      <c r="AG22" s="42"/>
+      <c r="AH22" s="44"/>
+      <c r="AI22" s="18"/>
+    </row>
+    <row r="23" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A23" s="16"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="39"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="42"/>
+      <c r="AB23" s="41"/>
+      <c r="AC23" s="38"/>
+      <c r="AD23" s="42"/>
+      <c r="AE23" s="38"/>
+      <c r="AF23" s="38"/>
+      <c r="AG23" s="42"/>
+      <c r="AH23" s="44"/>
+      <c r="AI23" s="18"/>
+    </row>
+    <row r="24" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A24" s="16"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="41"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="42"/>
+      <c r="AE24" s="38"/>
+      <c r="AF24" s="38"/>
+      <c r="AG24" s="42"/>
+      <c r="AH24" s="44"/>
+      <c r="AI24" s="18"/>
+    </row>
+    <row r="25" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A25" s="16"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="38"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="38"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="43"/>
+      <c r="Z25" s="38"/>
+      <c r="AA25" s="42"/>
+      <c r="AB25" s="41"/>
+      <c r="AC25" s="38"/>
+      <c r="AD25" s="42"/>
+      <c r="AE25" s="38"/>
+      <c r="AF25" s="38"/>
+      <c r="AG25" s="42"/>
+      <c r="AH25" s="44"/>
+      <c r="AI25" s="18"/>
+    </row>
+    <row r="26" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A26" s="16"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="39"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="42"/>
+      <c r="AB26" s="41"/>
+      <c r="AC26" s="38"/>
+      <c r="AD26" s="42"/>
+      <c r="AE26" s="38"/>
+      <c r="AF26" s="38"/>
+      <c r="AG26" s="42"/>
+      <c r="AH26" s="44"/>
+      <c r="AI26" s="18"/>
+    </row>
+    <row r="27" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A27" s="16"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="38"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="39"/>
+      <c r="W27" s="38"/>
+      <c r="X27" s="38"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="42"/>
+      <c r="AB27" s="41"/>
+      <c r="AC27" s="38"/>
+      <c r="AD27" s="42"/>
+      <c r="AE27" s="38"/>
+      <c r="AF27" s="38"/>
+      <c r="AG27" s="42"/>
+      <c r="AH27" s="44"/>
+      <c r="AI27" s="18"/>
+    </row>
+    <row r="28" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A28" s="16"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="38"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="43"/>
+      <c r="Z28" s="38"/>
+      <c r="AA28" s="42"/>
+      <c r="AB28" s="41"/>
+      <c r="AC28" s="38"/>
+      <c r="AD28" s="42"/>
+      <c r="AE28" s="38"/>
+      <c r="AF28" s="38"/>
+      <c r="AG28" s="42"/>
+      <c r="AH28" s="44"/>
+      <c r="AI28" s="18"/>
+    </row>
+    <row r="29" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A29" s="16"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="42"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="39"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="38"/>
+      <c r="AA29" s="42"/>
+      <c r="AB29" s="41"/>
+      <c r="AC29" s="38"/>
+      <c r="AD29" s="42"/>
+      <c r="AE29" s="38"/>
+      <c r="AF29" s="38"/>
+      <c r="AG29" s="42"/>
+      <c r="AH29" s="44"/>
+      <c r="AI29" s="18"/>
+    </row>
+    <row r="30" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A30" s="16"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="38"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="45"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="39"/>
+      <c r="W30" s="38"/>
+      <c r="X30" s="38"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="38"/>
+      <c r="AA30" s="42"/>
+      <c r="AB30" s="41"/>
+      <c r="AC30" s="38"/>
+      <c r="AD30" s="42"/>
+      <c r="AE30" s="38"/>
+      <c r="AF30" s="38"/>
+      <c r="AG30" s="42"/>
+      <c r="AH30" s="44"/>
+      <c r="AI30" s="18"/>
+    </row>
+    <row r="31" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A31" s="16"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="38"/>
+      <c r="X31" s="38"/>
+      <c r="Y31" s="43"/>
+      <c r="Z31" s="38"/>
+      <c r="AA31" s="42"/>
+      <c r="AB31" s="41"/>
+      <c r="AC31" s="38"/>
+      <c r="AD31" s="42"/>
+      <c r="AE31" s="38"/>
+      <c r="AF31" s="38"/>
+      <c r="AG31" s="42"/>
+      <c r="AH31" s="44"/>
+      <c r="AI31" s="18"/>
+    </row>
+    <row r="32" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A32" s="16"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="38"/>
+      <c r="AA32" s="42"/>
+      <c r="AB32" s="41"/>
+      <c r="AC32" s="38"/>
+      <c r="AD32" s="42"/>
+      <c r="AE32" s="38"/>
+      <c r="AF32" s="38"/>
+      <c r="AG32" s="42"/>
+      <c r="AH32" s="44"/>
+      <c r="AI32" s="18"/>
+    </row>
+    <row r="33" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A33" s="16"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="47"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="47"/>
+      <c r="W33" s="47"/>
+      <c r="X33" s="47"/>
+      <c r="Y33" s="46"/>
+      <c r="Z33" s="47"/>
+      <c r="AA33" s="49"/>
+      <c r="AB33" s="46"/>
+      <c r="AC33" s="47"/>
+      <c r="AD33" s="49"/>
+      <c r="AE33" s="47"/>
+      <c r="AF33" s="47"/>
+      <c r="AG33" s="49"/>
+      <c r="AH33" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="T7" s="40"/>
-      <c r="U7" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="V7" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="W7" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="18"/>
-    </row>
-    <row r="8" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="38"/>
-      <c r="W8" s="38"/>
-      <c r="X8" s="38"/>
-      <c r="Y8" s="38"/>
-      <c r="Z8" s="38"/>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="38"/>
-      <c r="AE8" s="38"/>
-      <c r="AF8" s="38"/>
-      <c r="AG8" s="18"/>
-    </row>
-    <row r="9" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="40"/>
-      <c r="M9" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="38"/>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="38"/>
-      <c r="AD9" s="38"/>
-      <c r="AE9" s="38"/>
-      <c r="AF9" s="38"/>
-      <c r="AG9" s="18"/>
-    </row>
-    <row r="10" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="38"/>
-      <c r="AA10" s="38"/>
-      <c r="AB10" s="38"/>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="38"/>
-      <c r="AE10" s="38"/>
-      <c r="AF10" s="38"/>
-      <c r="AG10" s="18"/>
-    </row>
-    <row r="11" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="38"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="38"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="38"/>
-      <c r="AE11" s="38"/>
-      <c r="AF11" s="38"/>
-      <c r="AG11" s="18"/>
-    </row>
-    <row r="12" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="84"/>
-      <c r="D12" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="81" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="85"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" s="85"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="81" t="s">
-        <v>2</v>
-      </c>
-      <c r="O12" s="82"/>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="83"/>
-      <c r="S12" s="81" t="s">
-        <v>30</v>
-      </c>
-      <c r="T12" s="82"/>
-      <c r="U12" s="83"/>
-      <c r="V12" s="81" t="s">
-        <v>31</v>
-      </c>
-      <c r="W12" s="82"/>
-      <c r="X12" s="83"/>
-      <c r="Y12" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z12" s="82"/>
-      <c r="AA12" s="82"/>
-      <c r="AB12" s="82"/>
-      <c r="AC12" s="82"/>
-      <c r="AD12" s="82"/>
-      <c r="AE12" s="83"/>
-      <c r="AF12" s="45"/>
-      <c r="AG12" s="18"/>
-    </row>
-    <row r="13" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="90" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="92" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="93"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="98" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="100"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="O13" s="38"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="98" t="s">
-        <v>29</v>
-      </c>
-      <c r="R13" s="99"/>
-      <c r="S13" s="95" t="s">
-        <v>39</v>
-      </c>
-      <c r="T13" s="96"/>
-      <c r="U13" s="97"/>
-      <c r="V13" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="W13" s="93"/>
-      <c r="X13" s="94"/>
-      <c r="Y13" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z13" s="38"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="38"/>
-      <c r="AE13" s="47"/>
-      <c r="AF13" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG13" s="18"/>
-    </row>
-    <row r="14" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="38"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="38"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="47"/>
-      <c r="AF14" s="49"/>
-      <c r="AG14" s="18"/>
-    </row>
-    <row r="15" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="47"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="47"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="47"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="38"/>
-      <c r="AB15" s="38"/>
-      <c r="AC15" s="38"/>
-      <c r="AD15" s="38"/>
-      <c r="AE15" s="47"/>
-      <c r="AF15" s="49"/>
-      <c r="AG15" s="18"/>
-    </row>
-    <row r="16" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="38"/>
-      <c r="AE16" s="47"/>
-      <c r="AF16" s="49"/>
-      <c r="AG16" s="18"/>
-    </row>
-    <row r="17" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A17" s="16"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="46"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="38"/>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="38"/>
-      <c r="AC17" s="38"/>
-      <c r="AD17" s="38"/>
-      <c r="AE17" s="47"/>
-      <c r="AF17" s="49"/>
-      <c r="AG17" s="18"/>
-    </row>
-    <row r="18" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="38"/>
-      <c r="AE18" s="47"/>
-      <c r="AF18" s="49"/>
-      <c r="AG18" s="18"/>
-    </row>
-    <row r="19" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="38"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
-      <c r="AB19" s="38"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="38"/>
-      <c r="AE19" s="47"/>
-      <c r="AF19" s="49"/>
-      <c r="AG19" s="18"/>
-    </row>
-    <row r="20" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A20" s="16"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="38"/>
-      <c r="AB20" s="38"/>
-      <c r="AC20" s="38"/>
-      <c r="AD20" s="38"/>
-      <c r="AE20" s="47"/>
-      <c r="AF20" s="49"/>
-      <c r="AG20" s="18"/>
-    </row>
-    <row r="21" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="38"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="38"/>
-      <c r="AA21" s="38"/>
-      <c r="AB21" s="38"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="38"/>
-      <c r="AE21" s="47"/>
-      <c r="AF21" s="49"/>
-      <c r="AG21" s="18"/>
-    </row>
-    <row r="22" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="38"/>
-      <c r="X22" s="38"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="38"/>
-      <c r="AA22" s="38"/>
-      <c r="AB22" s="38"/>
-      <c r="AC22" s="38"/>
-      <c r="AD22" s="38"/>
-      <c r="AE22" s="47"/>
-      <c r="AF22" s="49"/>
-      <c r="AG22" s="18"/>
-    </row>
-    <row r="23" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="48"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="38"/>
-      <c r="AC23" s="38"/>
-      <c r="AD23" s="38"/>
-      <c r="AE23" s="47"/>
-      <c r="AF23" s="49"/>
-      <c r="AG23" s="18"/>
-    </row>
-    <row r="24" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A24" s="16"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="38"/>
-      <c r="U24" s="38"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="38"/>
-      <c r="X24" s="38"/>
-      <c r="Y24" s="48"/>
-      <c r="Z24" s="38"/>
-      <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="38"/>
-      <c r="AD24" s="38"/>
-      <c r="AE24" s="47"/>
-      <c r="AF24" s="49"/>
-      <c r="AG24" s="18"/>
-    </row>
-    <row r="25" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A25" s="16"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="38"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="38"/>
-      <c r="X25" s="38"/>
-      <c r="Y25" s="48"/>
-      <c r="Z25" s="38"/>
-      <c r="AA25" s="38"/>
-      <c r="AB25" s="38"/>
-      <c r="AC25" s="38"/>
-      <c r="AD25" s="38"/>
-      <c r="AE25" s="47"/>
-      <c r="AF25" s="49"/>
-      <c r="AG25" s="18"/>
-    </row>
-    <row r="26" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A26" s="16"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="48"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="48"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="38"/>
-      <c r="AB26" s="38"/>
-      <c r="AC26" s="38"/>
-      <c r="AD26" s="38"/>
-      <c r="AE26" s="47"/>
-      <c r="AF26" s="49"/>
-      <c r="AG26" s="18"/>
-    </row>
-    <row r="27" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A27" s="16"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="46"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="48"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="48"/>
-      <c r="Z27" s="38"/>
-      <c r="AA27" s="38"/>
-      <c r="AB27" s="38"/>
-      <c r="AC27" s="38"/>
-      <c r="AD27" s="38"/>
-      <c r="AE27" s="47"/>
-      <c r="AF27" s="49"/>
-      <c r="AG27" s="18"/>
-    </row>
-    <row r="28" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A28" s="16"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="48"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="48"/>
-      <c r="Z28" s="38"/>
-      <c r="AA28" s="38"/>
-      <c r="AB28" s="38"/>
-      <c r="AC28" s="38"/>
-      <c r="AD28" s="38"/>
-      <c r="AE28" s="47"/>
-      <c r="AF28" s="49"/>
-      <c r="AG28" s="18"/>
-    </row>
-    <row r="29" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A29" s="16"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="38"/>
-      <c r="Y29" s="48"/>
-      <c r="Z29" s="38"/>
-      <c r="AA29" s="38"/>
-      <c r="AB29" s="38"/>
-      <c r="AC29" s="38"/>
-      <c r="AD29" s="38"/>
-      <c r="AE29" s="47"/>
-      <c r="AF29" s="49"/>
-      <c r="AG29" s="18"/>
-    </row>
-    <row r="30" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A30" s="16"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="48"/>
-      <c r="W30" s="38"/>
-      <c r="X30" s="38"/>
-      <c r="Y30" s="48"/>
-      <c r="Z30" s="38"/>
-      <c r="AA30" s="38"/>
-      <c r="AB30" s="38"/>
-      <c r="AC30" s="38"/>
-      <c r="AD30" s="38"/>
-      <c r="AE30" s="47"/>
-      <c r="AF30" s="49"/>
-      <c r="AG30" s="18"/>
-    </row>
-    <row r="31" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A31" s="16"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="38"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="47"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="38"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="38"/>
-      <c r="X31" s="38"/>
-      <c r="Y31" s="48"/>
-      <c r="Z31" s="38"/>
-      <c r="AA31" s="38"/>
-      <c r="AB31" s="38"/>
-      <c r="AC31" s="38"/>
-      <c r="AD31" s="38"/>
-      <c r="AE31" s="47"/>
-      <c r="AF31" s="49"/>
-      <c r="AG31" s="18"/>
-    </row>
-    <row r="32" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A32" s="16"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="47"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="38"/>
-      <c r="Y32" s="48"/>
-      <c r="Z32" s="38"/>
-      <c r="AA32" s="38"/>
-      <c r="AB32" s="38"/>
-      <c r="AC32" s="38"/>
-      <c r="AD32" s="38"/>
-      <c r="AE32" s="47"/>
-      <c r="AF32" s="49"/>
-      <c r="AG32" s="18"/>
-    </row>
-    <row r="33" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A33" s="16"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="47"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="47"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="48"/>
-      <c r="W33" s="38"/>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="48"/>
-      <c r="Z33" s="38"/>
-      <c r="AA33" s="38"/>
-      <c r="AB33" s="38"/>
-      <c r="AC33" s="38"/>
-      <c r="AD33" s="38"/>
-      <c r="AE33" s="47"/>
-      <c r="AF33" s="49"/>
-      <c r="AG33" s="18"/>
-    </row>
-    <row r="34" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AI33" s="18"/>
+    </row>
+    <row r="34" spans="1:35" ht="12.75" customHeight="1">
       <c r="A34" s="16"/>
-      <c r="B34" s="46"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="38"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="39"/>
       <c r="F34" s="38"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="48"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="38"/>
       <c r="I34" s="38"/>
       <c r="J34" s="38"/>
-      <c r="K34" s="46"/>
+      <c r="K34" s="38"/>
       <c r="L34" s="38"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="46"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
       <c r="O34" s="38"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="48"/>
+      <c r="P34" s="38"/>
+      <c r="Q34" s="38"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
       <c r="T34" s="38"/>
       <c r="U34" s="38"/>
-      <c r="V34" s="48"/>
+      <c r="V34" s="38"/>
       <c r="W34" s="38"/>
       <c r="X34" s="38"/>
-      <c r="Y34" s="48"/>
+      <c r="Y34" s="38"/>
       <c r="Z34" s="38"/>
       <c r="AA34" s="38"/>
       <c r="AB34" s="38"/>
       <c r="AC34" s="38"/>
       <c r="AD34" s="38"/>
-      <c r="AE34" s="47"/>
-      <c r="AF34" s="49"/>
-      <c r="AG34" s="18"/>
-    </row>
-    <row r="35" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AE34" s="38"/>
+      <c r="AF34" s="38"/>
+      <c r="AG34" s="38"/>
+      <c r="AH34" s="38"/>
+      <c r="AI34" s="18"/>
+    </row>
+    <row r="35" spans="1:35" ht="12.75" customHeight="1">
       <c r="A35" s="16"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="46"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="46"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="46"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="48"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="48"/>
-      <c r="W35" s="38"/>
-      <c r="X35" s="38"/>
-      <c r="Y35" s="48"/>
-      <c r="Z35" s="38"/>
-      <c r="AA35" s="38"/>
-      <c r="AB35" s="38"/>
-      <c r="AC35" s="38"/>
-      <c r="AD35" s="38"/>
-      <c r="AE35" s="47"/>
-      <c r="AF35" s="49"/>
-      <c r="AG35" s="18"/>
-    </row>
-    <row r="36" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A36" s="16"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="46"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="47"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="47"/>
-      <c r="S36" s="48"/>
-      <c r="T36" s="38"/>
-      <c r="U36" s="38"/>
-      <c r="V36" s="48"/>
-      <c r="W36" s="38"/>
-      <c r="X36" s="38"/>
-      <c r="Y36" s="48"/>
-      <c r="Z36" s="38"/>
-      <c r="AA36" s="38"/>
-      <c r="AB36" s="38"/>
-      <c r="AC36" s="38"/>
-      <c r="AD36" s="38"/>
-      <c r="AE36" s="47"/>
-      <c r="AF36" s="49"/>
-      <c r="AG36" s="18"/>
-    </row>
-    <row r="37" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A37" s="16"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="46"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="46"/>
-      <c r="R37" s="47"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="38"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="48"/>
-      <c r="W37" s="38"/>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="48"/>
-      <c r="Z37" s="38"/>
-      <c r="AA37" s="38"/>
-      <c r="AB37" s="38"/>
-      <c r="AC37" s="38"/>
-      <c r="AD37" s="38"/>
-      <c r="AE37" s="47"/>
-      <c r="AF37" s="49"/>
-      <c r="AG37" s="18"/>
-    </row>
-    <row r="38" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A38" s="16"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="47"/>
-      <c r="Q38" s="46"/>
-      <c r="R38" s="47"/>
-      <c r="S38" s="48"/>
-      <c r="T38" s="38"/>
-      <c r="U38" s="38"/>
-      <c r="V38" s="48"/>
-      <c r="W38" s="38"/>
-      <c r="X38" s="38"/>
-      <c r="Y38" s="48"/>
-      <c r="Z38" s="38"/>
-      <c r="AA38" s="38"/>
-      <c r="AB38" s="38"/>
-      <c r="AC38" s="38"/>
-      <c r="AD38" s="38"/>
-      <c r="AE38" s="47"/>
-      <c r="AF38" s="49"/>
-      <c r="AG38" s="18"/>
-    </row>
-    <row r="39" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A39" s="16"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="52"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="54"/>
-      <c r="Q39" s="51"/>
-      <c r="R39" s="54"/>
-      <c r="S39" s="51"/>
-      <c r="T39" s="52"/>
-      <c r="U39" s="52"/>
-      <c r="V39" s="51"/>
-      <c r="W39" s="52"/>
-      <c r="X39" s="52"/>
-      <c r="Y39" s="51"/>
-      <c r="Z39" s="52"/>
-      <c r="AA39" s="52"/>
-      <c r="AB39" s="52"/>
-      <c r="AC39" s="52"/>
-      <c r="AD39" s="52"/>
-      <c r="AE39" s="54"/>
-      <c r="AF39" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG39" s="18"/>
-    </row>
-    <row r="40" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A40" s="16"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
-      <c r="Q40" s="38"/>
-      <c r="R40" s="38"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="38"/>
-      <c r="U40" s="38"/>
-      <c r="V40" s="38"/>
-      <c r="W40" s="38"/>
-      <c r="X40" s="38"/>
-      <c r="Y40" s="38"/>
-      <c r="Z40" s="38"/>
-      <c r="AA40" s="38"/>
-      <c r="AB40" s="38"/>
-      <c r="AC40" s="38"/>
-      <c r="AD40" s="38"/>
-      <c r="AE40" s="38"/>
-      <c r="AF40" s="38"/>
-      <c r="AG40" s="18"/>
-    </row>
-    <row r="41" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A41" s="16"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
-      <c r="U41" s="13"/>
-      <c r="V41" s="13"/>
-      <c r="W41" s="13"/>
-      <c r="X41" s="13"/>
-      <c r="Y41" s="13"/>
-      <c r="Z41" s="13"/>
-      <c r="AA41" s="13"/>
-      <c r="AB41" s="13"/>
-      <c r="AC41" s="13"/>
-      <c r="AD41" s="13"/>
-      <c r="AE41" s="13"/>
-      <c r="AF41" s="13"/>
-      <c r="AG41" s="18"/>
-    </row>
-    <row r="42" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A42" s="27"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="28"/>
-      <c r="U42" s="28"/>
-      <c r="V42" s="28"/>
-      <c r="W42" s="28"/>
-      <c r="X42" s="28"/>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="28"/>
-      <c r="AA42" s="28"/>
-      <c r="AB42" s="28"/>
-      <c r="AC42" s="28"/>
-      <c r="AD42" s="28"/>
-      <c r="AE42" s="28"/>
-      <c r="AF42" s="28"/>
-      <c r="AG42" s="30"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13"/>
+      <c r="AA35" s="13"/>
+      <c r="AB35" s="13"/>
+      <c r="AC35" s="13"/>
+      <c r="AD35" s="13"/>
+      <c r="AE35" s="13"/>
+      <c r="AF35" s="13"/>
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="13"/>
+      <c r="AI35" s="18"/>
+    </row>
+    <row r="36" spans="1:35" ht="12.75" customHeight="1">
+      <c r="A36" s="27"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="28"/>
+      <c r="AE36" s="28"/>
+      <c r="AF36" s="28"/>
+      <c r="AG36" s="28"/>
+      <c r="AH36" s="28"/>
+      <c r="AI36" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="Y12:AE12"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="K12:M12"/>
+  <mergeCells count="20">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="A1:AI1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AD3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
